--- a/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F91DF1E2-A0EE-4DB8-8EBB-8DB928D692A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A024BD1-5848-47C3-8E3C-520B479353F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11D2E431-FFEF-4B7B-83C1-4D8D20C524A8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3449CE15-497C-49D7-80EF-409E4505AEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población con diagnóstico de otro dolor crónico en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>3,31%</t>
@@ -86,16 +86,16 @@
     <t>2,01%</t>
   </si>
   <si>
-    <t>5,04%</t>
+    <t>5,01%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>96,97%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>94,96%</t>
+    <t>94,99%</t>
   </si>
   <si>
     <t>97,99%</t>
@@ -122,10 +122,10 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>4,7%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>9,92%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>86,16%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,49 @@
     <t>5,03%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +302,55 @@
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +359,55 @@
     <t>13,57%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +416,55 @@
     <t>3,23%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,19 +473,19 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>3,06%</t>
@@ -500,31 +494,31 @@
     <t>2,4%</t>
   </si>
   <si>
-    <t>3,9%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>96,1%</t>
+    <t>96,06%</t>
   </si>
   <si>
     <t>97,6%</t>
@@ -533,25 +527,19 @@
     <t>4,74%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>6,15%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>7,2%</t>
@@ -560,19 +548,13 @@
     <t>95,26%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>93,37%</t>
@@ -581,7 +563,7 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>93,85%</t>
+    <t>93,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AD9B1E-F81A-4B39-8388-A194504D84B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A7FD6D-8EB2-48F2-8765-9548F92A2F7C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,13 +1582,13 @@
         <v>30232</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -1615,13 +1597,13 @@
         <v>46444</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,13 +1618,13 @@
         <v>306029</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>538</v>
@@ -1651,13 +1633,13 @@
         <v>398324</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>813</v>
@@ -1666,13 +1648,13 @@
         <v>704352</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1710,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1740,13 +1722,13 @@
         <v>7577</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -1755,13 +1737,13 @@
         <v>20065</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -1770,13 +1752,13 @@
         <v>27641</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1773,13 @@
         <v>189171</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>445</v>
@@ -1806,13 +1788,13 @@
         <v>211431</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>712</v>
@@ -1821,13 +1803,13 @@
         <v>400603</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,7 +1865,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1895,13 +1877,13 @@
         <v>37622</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -1910,13 +1892,13 @@
         <v>54387</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -1925,13 +1907,13 @@
         <v>92010</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1928,13 @@
         <v>239601</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>340</v>
@@ -1961,13 +1943,13 @@
         <v>220518</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>648</v>
@@ -1976,13 +1958,13 @@
         <v>460117</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2050,13 +2032,13 @@
         <v>20171</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -2065,13 +2047,13 @@
         <v>58178</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -2080,13 +2062,13 @@
         <v>78350</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2083,13 @@
         <v>604981</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>866</v>
@@ -2116,13 +2098,13 @@
         <v>745706</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1439</v>
@@ -2131,13 +2113,13 @@
         <v>1350686</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2187,13 @@
         <v>14530</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -2220,13 +2202,13 @@
         <v>38173</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -2235,13 +2217,13 @@
         <v>52704</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2238,13 @@
         <v>844898</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>1007</v>
@@ -2271,13 +2253,13 @@
         <v>827499</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1753</v>
@@ -2286,13 +2268,13 @@
         <v>1672396</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2342,13 @@
         <v>160327</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>563</v>
@@ -2375,13 +2357,13 @@
         <v>316220</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>771</v>
@@ -2390,13 +2372,13 @@
         <v>476547</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2393,13 @@
         <v>3221228</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
         <v>4795</v>
@@ -2426,13 +2408,13 @@
         <v>3486820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>7959</v>
@@ -2441,13 +2423,13 @@
         <v>6708049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A024BD1-5848-47C3-8E3C-520B479353F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD145E2-98EC-40A8-AED9-BF2749021D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3449CE15-497C-49D7-80EF-409E4505AEB4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F7EBEC1-F6C9-4E3A-91B6-746D355BAD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A7FD6D-8EB2-48F2-8765-9548F92A2F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89647EFE-506C-4788-A516-57828E4014CF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD145E2-98EC-40A8-AED9-BF2749021D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F786898-4831-43A9-BEB9-4177CDFC1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F7EBEC1-F6C9-4E3A-91B6-746D355BAD6D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9613CEE7-F7CE-477E-855B-04079583466B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población con diagnóstico de otro dolor crónico en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>3,31%</t>
@@ -86,16 +86,16 @@
     <t>2,01%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>5,04%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>96,97%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>94,99%</t>
+    <t>94,96%</t>
   </si>
   <si>
     <t>97,99%</t>
@@ -122,10 +122,10 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,424 +137,442 @@
     <t>4,7%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>92,53%</t>
   </si>
   <si>
     <t>93,37%</t>
@@ -563,7 +581,7 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>93,93%</t>
+    <t>93,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89647EFE-506C-4788-A516-57828E4014CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6197F50F-AEDB-4E05-A4B9-CED7B856D894}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,13 +1600,13 @@
         <v>30232</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -1597,13 +1615,13 @@
         <v>46444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,13 +1636,13 @@
         <v>306029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>538</v>
@@ -1633,13 +1651,13 @@
         <v>398324</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>813</v>
@@ -1648,13 +1666,13 @@
         <v>704352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,7 +1728,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1722,13 +1740,13 @@
         <v>7577</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -1737,13 +1755,13 @@
         <v>20065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -1752,13 +1770,13 @@
         <v>27641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1791,13 @@
         <v>189171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>445</v>
@@ -1788,13 +1806,13 @@
         <v>211431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>712</v>
@@ -1803,13 +1821,13 @@
         <v>400603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1883,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1895,13 @@
         <v>37622</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -1892,13 +1910,13 @@
         <v>54387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -1907,13 +1925,13 @@
         <v>92010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1946,13 @@
         <v>239601</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>340</v>
@@ -1943,13 +1961,13 @@
         <v>220518</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>648</v>
@@ -1958,13 +1976,13 @@
         <v>460117</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2032,13 +2050,13 @@
         <v>20171</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -2047,13 +2065,13 @@
         <v>58178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -2062,13 +2080,13 @@
         <v>78350</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2101,13 @@
         <v>604981</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>866</v>
@@ -2098,13 +2116,13 @@
         <v>745706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1439</v>
@@ -2113,13 +2131,13 @@
         <v>1350686</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2187,13 +2205,13 @@
         <v>14530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -2202,13 +2220,13 @@
         <v>38173</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -2217,13 +2235,13 @@
         <v>52704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2256,13 @@
         <v>844898</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>1007</v>
@@ -2253,13 +2271,13 @@
         <v>827499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1753</v>
@@ -2268,13 +2286,13 @@
         <v>1672396</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2360,13 @@
         <v>160327</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>563</v>
@@ -2357,13 +2375,13 @@
         <v>316220</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>771</v>
@@ -2372,13 +2390,13 @@
         <v>476547</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2411,13 @@
         <v>3221228</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4795</v>
@@ -2408,13 +2426,13 @@
         <v>3486820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>7959</v>
@@ -2423,13 +2441,13 @@
         <v>6708049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F786898-4831-43A9-BEB9-4177CDFC1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7802A7D7-BD9A-4E3A-8028-DDB72EB142D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9613CEE7-F7CE-477E-855B-04079583466B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E88D1A39-F20E-4FE4-A34A-7426D4ADE06D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población con diagnóstico de otro dolor crónico en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,454 +134,448 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6197F50F-AEDB-4E05-A4B9-CED7B856D894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC93336-E342-4B4A-A52D-6D55091FFD0E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>7882</v>
+        <v>8661</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1126,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>8990</v>
+        <v>9141</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1141,7 @@
         <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>16873</v>
+        <v>17803</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1162,7 @@
         <v>320</v>
       </c>
       <c r="D5" s="7">
-        <v>252416</v>
+        <v>302782</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1177,7 @@
         <v>518</v>
       </c>
       <c r="I5" s="7">
-        <v>262413</v>
+        <v>280494</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1192,7 @@
         <v>838</v>
       </c>
       <c r="N5" s="7">
-        <v>514827</v>
+        <v>583274</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1213,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1228,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1243,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>24381</v>
+        <v>23441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1281,7 @@
         <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>41856</v>
+        <v>38416</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1296,7 @@
         <v>80</v>
       </c>
       <c r="N7" s="7">
-        <v>66237</v>
+        <v>61857</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1317,7 @@
         <v>360</v>
       </c>
       <c r="D8" s="7">
-        <v>493846</v>
+        <v>493952</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1332,7 @@
         <v>657</v>
       </c>
       <c r="I8" s="7">
-        <v>511985</v>
+        <v>475875</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1347,7 @@
         <v>1017</v>
       </c>
       <c r="N8" s="7">
-        <v>1005831</v>
+        <v>969827</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1368,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1383,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553841</v>
+        <v>514291</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1398,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072068</v>
+        <v>1031684</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1421,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>31951</v>
+        <v>30412</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1436,7 @@
         <v>112</v>
       </c>
       <c r="I10" s="7">
-        <v>64338</v>
+        <v>59539</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1451,7 @@
         <v>157</v>
       </c>
       <c r="N10" s="7">
-        <v>96289</v>
+        <v>89950</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1472,7 @@
         <v>315</v>
       </c>
       <c r="D11" s="7">
-        <v>290289</v>
+        <v>285638</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1487,7 @@
         <v>424</v>
       </c>
       <c r="I11" s="7">
-        <v>308946</v>
+        <v>289589</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1502,7 @@
         <v>739</v>
       </c>
       <c r="N11" s="7">
-        <v>599235</v>
+        <v>575228</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1523,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1538,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1553,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>16211</v>
+        <v>15396</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1597,7 +1591,7 @@
         <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>30232</v>
+        <v>28222</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1612,7 +1606,7 @@
         <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>46444</v>
+        <v>43619</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1627,7 @@
         <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>306029</v>
+        <v>297161</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1648,7 +1642,7 @@
         <v>538</v>
       </c>
       <c r="I14" s="7">
-        <v>398324</v>
+        <v>447496</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1663,7 +1657,7 @@
         <v>813</v>
       </c>
       <c r="N14" s="7">
-        <v>704352</v>
+        <v>744655</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1684,7 +1678,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1693,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1708,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>7577</v>
+        <v>6912</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1746,7 @@
         <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>20065</v>
+        <v>18143</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1767,7 +1761,7 @@
         <v>58</v>
       </c>
       <c r="N16" s="7">
-        <v>27641</v>
+        <v>25054</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1788,7 +1782,7 @@
         <v>267</v>
       </c>
       <c r="D17" s="7">
-        <v>189171</v>
+        <v>171830</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1803,7 +1797,7 @@
         <v>445</v>
       </c>
       <c r="I17" s="7">
-        <v>211431</v>
+        <v>190131</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1818,7 +1812,7 @@
         <v>712</v>
       </c>
       <c r="N17" s="7">
-        <v>400603</v>
+        <v>361962</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1839,7 +1833,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1848,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1863,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1892,7 +1886,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="7">
-        <v>37622</v>
+        <v>36226</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1907,7 +1901,7 @@
         <v>119</v>
       </c>
       <c r="I19" s="7">
-        <v>54387</v>
+        <v>50839</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1922,7 +1916,7 @@
         <v>182</v>
       </c>
       <c r="N19" s="7">
-        <v>92010</v>
+        <v>87065</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1943,7 +1937,7 @@
         <v>308</v>
       </c>
       <c r="D20" s="7">
-        <v>239601</v>
+        <v>233410</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1958,7 +1952,7 @@
         <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>220518</v>
+        <v>205548</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1973,7 +1967,7 @@
         <v>648</v>
       </c>
       <c r="N20" s="7">
-        <v>460117</v>
+        <v>438958</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1994,7 +1988,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +2003,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2018,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2047,7 +2041,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>20171</v>
+        <v>19267</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2062,7 +2056,7 @@
         <v>92</v>
       </c>
       <c r="I22" s="7">
-        <v>58178</v>
+        <v>52922</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2077,7 +2071,7 @@
         <v>115</v>
       </c>
       <c r="N22" s="7">
-        <v>78350</v>
+        <v>72189</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2098,7 +2092,7 @@
         <v>573</v>
       </c>
       <c r="D23" s="7">
-        <v>604981</v>
+        <v>602614</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2113,7 +2107,7 @@
         <v>866</v>
       </c>
       <c r="I23" s="7">
-        <v>745706</v>
+        <v>796024</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2128,7 +2122,7 @@
         <v>1439</v>
       </c>
       <c r="N23" s="7">
-        <v>1350686</v>
+        <v>1398638</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2149,7 +2143,7 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>625152</v>
+        <v>621881</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2158,7 @@
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>803884</v>
+        <v>848946</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2173,7 @@
         <v>1554</v>
       </c>
       <c r="N24" s="7">
-        <v>1429036</v>
+        <v>1470827</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2202,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>14530</v>
+        <v>12413</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2217,7 +2211,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="7">
-        <v>38173</v>
+        <v>32118</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -2232,7 +2226,7 @@
         <v>70</v>
       </c>
       <c r="N25" s="7">
-        <v>52704</v>
+        <v>44531</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -2253,7 +2247,7 @@
         <v>746</v>
       </c>
       <c r="D26" s="7">
-        <v>844898</v>
+        <v>916307</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -2268,7 +2262,7 @@
         <v>1007</v>
       </c>
       <c r="I26" s="7">
-        <v>827499</v>
+        <v>683274</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>158</v>
@@ -2283,7 +2277,7 @@
         <v>1753</v>
       </c>
       <c r="N26" s="7">
-        <v>1672396</v>
+        <v>1599581</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -2304,7 +2298,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2313,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2328,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,46 +2351,46 @@
         <v>208</v>
       </c>
       <c r="D28" s="7">
-        <v>160327</v>
+        <v>152728</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>563</v>
       </c>
       <c r="I28" s="7">
-        <v>316220</v>
+        <v>289340</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>771</v>
       </c>
       <c r="N28" s="7">
-        <v>476547</v>
+        <v>442068</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,46 +2402,46 @@
         <v>3164</v>
       </c>
       <c r="D29" s="7">
-        <v>3221228</v>
+        <v>3303694</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>4795</v>
       </c>
       <c r="I29" s="7">
-        <v>3486820</v>
+        <v>3368428</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>7959</v>
       </c>
       <c r="N29" s="7">
-        <v>6708049</v>
+        <v>6672122</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2453,7 @@
         <v>3372</v>
       </c>
       <c r="D30" s="7">
-        <v>3381555</v>
+        <v>3456422</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2468,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3803040</v>
+        <v>3657768</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2483,7 @@
         <v>8730</v>
       </c>
       <c r="N30" s="7">
-        <v>7184596</v>
+        <v>7114190</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
